--- a/input_data/flow_scen/FallFlows20250705_Draft 1.xlsx
+++ b/input_data/flow_scen/FallFlows20250705_Draft 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cehlo_usbr_gov/Documents/Redd_dewatering/Fall_Flow_Redd_Dewatering/input_data/flow_scen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9CC0231C-4DD6-4F82-BBA7-9D29C6231E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C7DBC8F-50C9-448D-A236-F5A48D127161}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9CC0231C-4DD6-4F82-BBA7-9D29C6231E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A4656A-00B4-4F5E-8704-B260A285857E}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="345" windowWidth="21600" windowHeight="11385" tabRatio="876" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="876" activeTab="1" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Keswick Flow Alternatives" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Keswick Flows in cfs</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>B1: Scenario using June  50% Exceedance Forecast developed on July 3, 2025.Does not use ramping rate criteria.</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,9 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4335,6 +4335,9 @@
               <c:f>'Keswick Flow Alternatives'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -16839,6 +16842,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C1</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -20016,7 +20022,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E215" sqref="E215"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20058,7 +20064,9 @@
       <c r="D2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -21080,7 +21088,7 @@
       <c r="A41" s="39">
         <v>45908</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="2">
         <v>8000</v>
       </c>
@@ -26899,8 +26907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D67B6F-CD3E-42CC-BABC-E7E74F1F1B54}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26933,7 +26941,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -26963,7 +26973,7 @@
       <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
@@ -27061,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA370860-48CD-4B92-B790-82066B2C7AEE}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
